--- a/biology/Botanique/Geastrum/Geastrum.xlsx
+++ b/biology/Botanique/Geastrum/Geastrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Géastre
-Geastrum, les Géastres, est un genre de champignons basidiomycètes de la famille des Geastraceae, dont il constitue la majorité des espèces. Ce sont des champignons gastéroïdes, dont le tissu fertile est contenu à l'intérieur du sporophore. Au sein du genre, les espèces se distinguent essentiellement grâce à la morphologie du petit trou d'expulsion des spores, nommé « ostiole »[1].
+Geastrum, les Géastres, est un genre de champignons basidiomycètes de la famille des Geastraceae, dont il constitue la majorité des espèces. Ce sont des champignons gastéroïdes, dont le tissu fertile est contenu à l'intérieur du sporophore. Au sein du genre, les espèces se distinguent essentiellement grâce à la morphologie du petit trou d'expulsion des spores, nommé « ostiole ».
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geastrum est un nom proposé en remplacement de Geaster par Vincent Demoulin en 1984, à partir d'un nom créé par Persoon en 1794. Étymologiquement, ce nom est construit à partir du grec ancien γῆ, gễ (« terre ») et  ἀστήρ, astêr (« étoile »). Il est francisé en « Géastre »[1],[2].
-Geastrum a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geastrum est un nom proposé en remplacement de Geaster par Vincent Demoulin en 1984, à partir d'un nom créé par Persoon en 1794. Étymologiquement, ce nom est construit à partir du grec ancien γῆ, gễ (« terre ») et  ἀστήρ, astêr (« étoile »). Il est francisé en « Géastre »,.
+Geastrum a pour synonymes :
 Anthropomorphus Seger, 1745
 Astrocitum Rafinesque, 1806
 Astrycum Rafinesque, 1809
@@ -552,10 +566,12 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Geastrum est présent sur l'ensemble des terres émergées du globe[3]. En Europe, il est réparti des côtes méditerranéennes jusqu'au-delà du cercle arctique[1].
-Toutes les espèces européennes sont saprotrophes et terricoles, préférentiellement sur sol basique et bien drainé. Elle poussent dans les forêts, les prairies embroussaillées, les haies, les parcs et les jardins ainsi que les dunes côtières[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Geastrum est présent sur l'ensemble des terres émergées du globe. En Europe, il est réparti des côtes méditerranéennes jusqu'au-delà du cercle arctique.
+Toutes les espèces européennes sont saprotrophes et terricoles, préférentiellement sur sol basique et bien drainé. Elle poussent dans les forêts, les prairies embroussaillées, les haies, les parcs et les jardins ainsi que les dunes côtières.
 </t>
         </is>
       </c>
@@ -584,9 +600,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Geastraceae sont proches des Lycoperdaceae, les Vesses de Loup, qui ont également un petit trou nommé ostiole, mais leur capacité à expulser les spores du sporophore afin qu'elles soient disséminées par le vent sous l'effet de la chute de gouttes d'eau, sont plus complexes et plus efficaces. En effet, la structure particulière du péristome membraneuse, robuste, de forme généralement conique plus ou moins proéminente, et comportant une ostiole de petit diamètre, permet une pression interne élevée. Chez certaines espèces, la zone du péristome est plissée et l'ostiole pratiquement fermée, de sorte qu'elles bénéficient de pression interne encore plus importante ; immédiatement après son ouverture, l'ostiole se refermant grâce à l'élasticité et à l'extensibilité de la zone péristomiale. De plus, comme chez les Lycoperdaceae, l’intérieur fertile du champignon, nommé « endopéridium », est garni de filaments parallèles et perpendiculaires aux parois permettant de retenir les spores et de réguler leur sortie progressivement dans le temps. D'autre part, ils laissent la partie centrale libre permettant une voie de sortie presque obligatoire pour les spores qui sont progressivement dirigées et accélérées vers l'ostiole[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Geastraceae sont proches des Lycoperdaceae, les Vesses de Loup, qui ont également un petit trou nommé ostiole, mais leur capacité à expulser les spores du sporophore afin qu'elles soient disséminées par le vent sous l'effet de la chute de gouttes d'eau, sont plus complexes et plus efficaces. En effet, la structure particulière du péristome membraneuse, robuste, de forme généralement conique plus ou moins proéminente, et comportant une ostiole de petit diamètre, permet une pression interne élevée. Chez certaines espèces, la zone du péristome est plissée et l'ostiole pratiquement fermée, de sorte qu'elles bénéficient de pression interne encore plus importante ; immédiatement après son ouverture, l'ostiole se refermant grâce à l'élasticité et à l'extensibilité de la zone péristomiale. De plus, comme chez les Lycoperdaceae, l’intérieur fertile du champignon, nommé « endopéridium », est garni de filaments parallèles et perpendiculaires aux parois permettant de retenir les spores et de réguler leur sortie progressivement dans le temps. D'autre part, ils laissent la partie centrale libre permettant une voie de sortie presque obligatoire pour les spores qui sont progressivement dirigées et accélérées vers l'ostiole.
 	Quelques espèces du genre Geastrum
 			Geastrum pectinatum
 			Geastrum schmidelii
@@ -630,9 +648,11 @@
           <t>Espèces de France</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon INPN      (18 octobre 2021)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon INPN      (18 octobre 2021) :
 Ensemble des espèces présentes en France
 Geastrum baculicrystallum J.O. Sousa, Accioly, Baseia &amp; M.P. Martín, 2019
 Geastrum berkeleyi Massee, 1889
@@ -703,9 +723,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (18 octobre 2021)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (18 octobre 2021) :
 Ensemble des espèces acceptées
 Geastrum aculeatum B.D.B.Silva &amp; Baseia
 Geastrum affinis Colenso
@@ -748,7 +770,7 @@
 Geastrum elegans Vittad.
 Geastrum ellipticum G.Cunn.
 Geastrum englerianum Henn.
-Geastrum entomophilum Fazolino, Calonge &amp; Baseia[5]
+Geastrum entomophilum Fazolino, Calonge &amp; Baseia
 Geastrum episcopale Kuhar &amp; Papin.
 Geastrum excipuliforme Anon.
 Geastrum fenestratum (Batsch) Lloyd
@@ -778,7 +800,7 @@
 Geastrum laevisporum J.O.Sousa &amp; Baseia
 Geastrum lageniforme Vittad.
 Geastrum lanuginosum R.V.B.Araújo, J.O.Sousa, M.P.Martín, Baseia &amp; B.D.B Silva
-Geastrum lilloi L.S.Domínguez[6]
+Geastrum lilloi L.S.Domínguez
 Geastrum limbatum Fr.
 Geastrum litchiforme Desjardin &amp; Hemmes
 Geastrum lloydii Bres. &amp; Pat.
@@ -805,7 +827,7 @@
 Geastrum pectinatum Pers.
 Geastrum pedicellatum (Batsch) Dörfelt &amp; Müll.-Uri
 Geastrum piquiriunense Accioly, A.A.Lima, J.O.Sousa, M.P.Martín &amp; Baseia
-Geastrum pleosporum Douanla-Meli[7]
+Geastrum pleosporum Douanla-Meli
 Geastrum pluriosteus Long &amp; Stouffer
 Geastrum pouzarii V.J.Staněk
 Geastrum pseudostriatum Hollós
